--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Igfbp4-Fzd8.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Igfbp4-Fzd8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.00255766642689</v>
+        <v>9.568356333333332</v>
       </c>
       <c r="H2">
-        <v>5.00255766642689</v>
+        <v>28.705069</v>
       </c>
       <c r="I2">
-        <v>0.05622659089620877</v>
+        <v>0.09973288675158326</v>
       </c>
       <c r="J2">
-        <v>0.05622659089620877</v>
+        <v>0.09973288675158326</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>6.36158187001129</v>
+        <v>2.558821666666667</v>
       </c>
       <c r="N2">
-        <v>6.36158187001129</v>
+        <v>7.676465</v>
       </c>
       <c r="O2">
-        <v>0.7068375544046567</v>
+        <v>0.2156728774407755</v>
       </c>
       <c r="P2">
-        <v>0.7068375544046567</v>
+        <v>0.2156728774407755</v>
       </c>
       <c r="Q2">
-        <v>31.82418015442729</v>
+        <v>24.48371750012056</v>
       </c>
       <c r="R2">
-        <v>31.82418015442729</v>
+        <v>220.353457501085</v>
       </c>
       <c r="S2">
-        <v>0.03974306600158733</v>
+        <v>0.02150967866118896</v>
       </c>
       <c r="T2">
-        <v>0.03974306600158733</v>
+        <v>0.02150967866118896</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.00255766642689</v>
+        <v>9.568356333333332</v>
       </c>
       <c r="H3">
-        <v>5.00255766642689</v>
+        <v>28.705069</v>
       </c>
       <c r="I3">
-        <v>0.05622659089620877</v>
+        <v>0.09973288675158326</v>
       </c>
       <c r="J3">
-        <v>0.05622659089620877</v>
+        <v>0.09973288675158326</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.63848020983875</v>
+        <v>6.453984666666667</v>
       </c>
       <c r="N3">
-        <v>2.63848020983875</v>
+        <v>19.361954</v>
       </c>
       <c r="O3">
-        <v>0.2931624455953434</v>
+        <v>0.5439806384912759</v>
       </c>
       <c r="P3">
-        <v>0.2931624455953434</v>
+        <v>0.5439806384912759</v>
       </c>
       <c r="Q3">
-        <v>13.19914940144447</v>
+        <v>61.75402506053621</v>
       </c>
       <c r="R3">
-        <v>13.19914940144447</v>
+        <v>555.786225544826</v>
       </c>
       <c r="S3">
-        <v>0.01648352489462143</v>
+        <v>0.05425275941370437</v>
       </c>
       <c r="T3">
-        <v>0.01648352489462143</v>
+        <v>0.05425275941370437</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>75.7128965153674</v>
+        <v>9.568356333333332</v>
       </c>
       <c r="H4">
-        <v>75.7128965153674</v>
+        <v>28.705069</v>
       </c>
       <c r="I4">
-        <v>0.8509803068351633</v>
+        <v>0.09973288675158326</v>
       </c>
       <c r="J4">
-        <v>0.8509803068351633</v>
+        <v>0.09973288675158326</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.36158187001129</v>
+        <v>2.851558333333334</v>
       </c>
       <c r="N4">
-        <v>6.36158187001129</v>
+        <v>8.554675000000001</v>
       </c>
       <c r="O4">
-        <v>0.7068375544046567</v>
+        <v>0.2403464840679487</v>
       </c>
       <c r="P4">
-        <v>0.7068375544046567</v>
+        <v>0.2403464840679487</v>
       </c>
       <c r="Q4">
-        <v>481.6537897982022</v>
+        <v>27.28472623861945</v>
       </c>
       <c r="R4">
-        <v>481.6537897982022</v>
+        <v>245.562536147575</v>
       </c>
       <c r="S4">
-        <v>0.6015048389298912</v>
+        <v>0.02397044867668994</v>
       </c>
       <c r="T4">
-        <v>0.6015048389298912</v>
+        <v>0.02397044867668994</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>75.7128965153674</v>
+        <v>75.94550566666668</v>
       </c>
       <c r="H5">
-        <v>75.7128965153674</v>
+        <v>227.836517</v>
       </c>
       <c r="I5">
-        <v>0.8509803068351633</v>
+        <v>0.7915951551217724</v>
       </c>
       <c r="J5">
-        <v>0.8509803068351633</v>
+        <v>0.7915951551217723</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.63848020983875</v>
+        <v>2.558821666666667</v>
       </c>
       <c r="N5">
-        <v>2.63848020983875</v>
+        <v>7.676465</v>
       </c>
       <c r="O5">
-        <v>0.2931624455953434</v>
+        <v>0.2156728774407755</v>
       </c>
       <c r="P5">
-        <v>0.2931624455953434</v>
+        <v>0.2156728774407755</v>
       </c>
       <c r="Q5">
-        <v>199.7669790853661</v>
+        <v>194.3310053858228</v>
       </c>
       <c r="R5">
-        <v>199.7669790853661</v>
+        <v>1748.979048472405</v>
       </c>
       <c r="S5">
-        <v>0.2494754679052722</v>
+        <v>0.1707256048732896</v>
       </c>
       <c r="T5">
-        <v>0.2494754679052722</v>
+        <v>0.1707256048732896</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.255930828215289</v>
+        <v>75.94550566666668</v>
       </c>
       <c r="H6">
-        <v>8.255930828215289</v>
+        <v>227.836517</v>
       </c>
       <c r="I6">
-        <v>0.09279310226862793</v>
+        <v>0.7915951551217724</v>
       </c>
       <c r="J6">
-        <v>0.09279310226862793</v>
+        <v>0.7915951551217723</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.36158187001129</v>
+        <v>6.453984666666667</v>
       </c>
       <c r="N6">
-        <v>6.36158187001129</v>
+        <v>19.361954</v>
       </c>
       <c r="O6">
-        <v>0.7068375544046567</v>
+        <v>0.5439806384912759</v>
       </c>
       <c r="P6">
-        <v>0.7068375544046567</v>
+        <v>0.5439806384912759</v>
       </c>
       <c r="Q6">
-        <v>52.52077987684168</v>
+        <v>490.1511290749132</v>
       </c>
       <c r="R6">
-        <v>52.52077987684168</v>
+        <v>4411.360161674218</v>
       </c>
       <c r="S6">
-        <v>0.06558964947317816</v>
+        <v>0.4306124379097423</v>
       </c>
       <c r="T6">
-        <v>0.06558964947317816</v>
+        <v>0.4306124379097422</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.255930828215289</v>
+        <v>75.94550566666668</v>
       </c>
       <c r="H7">
-        <v>8.255930828215289</v>
+        <v>227.836517</v>
       </c>
       <c r="I7">
-        <v>0.09279310226862793</v>
+        <v>0.7915951551217724</v>
       </c>
       <c r="J7">
-        <v>0.09279310226862793</v>
+        <v>0.7915951551217723</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.63848020983875</v>
+        <v>2.851558333333334</v>
       </c>
       <c r="N7">
-        <v>2.63848020983875</v>
+        <v>8.554675000000001</v>
       </c>
       <c r="O7">
-        <v>0.2931624455953434</v>
+        <v>0.2403464840679487</v>
       </c>
       <c r="P7">
-        <v>0.2931624455953434</v>
+        <v>0.2403464840679487</v>
       </c>
       <c r="Q7">
-        <v>21.78311010404368</v>
+        <v>216.5630395629973</v>
       </c>
       <c r="R7">
-        <v>21.78311010404368</v>
+        <v>1949.067356066975</v>
       </c>
       <c r="S7">
-        <v>0.02720345279544977</v>
+        <v>0.1902571123387404</v>
       </c>
       <c r="T7">
-        <v>0.02720345279544977</v>
+        <v>0.1902571123387404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>10.42596933333333</v>
+      </c>
+      <c r="H8">
+        <v>31.277908</v>
+      </c>
+      <c r="I8">
+        <v>0.1086719581266445</v>
+      </c>
+      <c r="J8">
+        <v>0.1086719581266445</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>2.558821666666667</v>
+      </c>
+      <c r="N8">
+        <v>7.676465</v>
+      </c>
+      <c r="O8">
+        <v>0.2156728774407755</v>
+      </c>
+      <c r="P8">
+        <v>0.2156728774407755</v>
+      </c>
+      <c r="Q8">
+        <v>26.67819622613555</v>
+      </c>
+      <c r="R8">
+        <v>240.10376603522</v>
+      </c>
+      <c r="S8">
+        <v>0.02343759390629687</v>
+      </c>
+      <c r="T8">
+        <v>0.02343759390629687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>10.42596933333333</v>
+      </c>
+      <c r="H9">
+        <v>31.277908</v>
+      </c>
+      <c r="I9">
+        <v>0.1086719581266445</v>
+      </c>
+      <c r="J9">
+        <v>0.1086719581266445</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>6.453984666666667</v>
+      </c>
+      <c r="N9">
+        <v>19.361954</v>
+      </c>
+      <c r="O9">
+        <v>0.5439806384912759</v>
+      </c>
+      <c r="P9">
+        <v>0.5439806384912759</v>
+      </c>
+      <c r="Q9">
+        <v>67.28904621247023</v>
+      </c>
+      <c r="R9">
+        <v>605.601415912232</v>
+      </c>
+      <c r="S9">
+        <v>0.05911544116782926</v>
+      </c>
+      <c r="T9">
+        <v>0.05911544116782926</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>10.42596933333333</v>
+      </c>
+      <c r="H10">
+        <v>31.277908</v>
+      </c>
+      <c r="I10">
+        <v>0.1086719581266445</v>
+      </c>
+      <c r="J10">
+        <v>0.1086719581266445</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.851558333333334</v>
+      </c>
+      <c r="N10">
+        <v>8.554675000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.2403464840679487</v>
+      </c>
+      <c r="P10">
+        <v>0.2403464840679487</v>
+      </c>
+      <c r="Q10">
+        <v>29.73025973554445</v>
+      </c>
+      <c r="R10">
+        <v>267.5723376199001</v>
+      </c>
+      <c r="S10">
+        <v>0.02611892305251834</v>
+      </c>
+      <c r="T10">
+        <v>0.02611892305251835</v>
       </c>
     </row>
   </sheetData>
